--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533006.016466487</v>
+        <v>1525989.001574776</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10932610.52150617</v>
+        <v>10932610.52150618</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>268.7784752282507</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.85099796338674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.1250215338158</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>8.389005322401406</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.54126986570947</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7676307244759</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>26.78026256753527</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>81.2342443714037</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.64843562452445</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274077</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>102.999533959328</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.71351309394451</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.7366432835706</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>185.0314030821033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>54.99675100248646</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8385935972313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>173.9898110906274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>110.1949644673082</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>57.64843562452401</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>66.14085215535493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>191.6534898356756</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>58.75775985151821</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1258.850788876759</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>889.8882719363478</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>889.8882719363478</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>889.8882719363478</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>478.9023671467402</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2035.589960916693</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1645.450628940881</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E5" t="n">
-        <v>769.0955750279677</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>358.1096702383601</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4664,31 +4664,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>357.2197656505683</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E7" t="n">
-        <v>209.3066720681752</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>62.41672457026485</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990286</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990286</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014474</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>671.6612947898188</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>671.6612947898188</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.685527502828</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1186.001039296941</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>896.58386925998</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619627</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,10 +5299,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>610.099572080556</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>463.2096245826456</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1319.443679146046</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1319.443679146046</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1319.443679146046</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.759190940159</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5794,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>112.1025897265188</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6074,22 +6074,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.095853319815</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905255</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6253,7 +6253,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2881.956579893675</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3128.721707800139</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.0418410801</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744133</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.44453396283</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028583</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4073.011257337222</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.075074409315</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D31" t="n">
-        <v>3753.958434996979</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>4703.441852209008</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>4475.452301310991</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y31" t="n">
-        <v>4254.659722167461</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="32">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4093.25603081147</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>3803.838860774509</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>3628.091576844583</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,7 +6961,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.685527502828</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.001039296941</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>896.58386925998</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619627</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184325</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,7 +7180,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4391.604587469457</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>4222.66840454155</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>4072.551765129214</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>3924.638671546821</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4860.854573014292</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>4794.045631443227</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>4573.253052299697</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1050.134140516355</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>881.1979575884482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>731.0813181761124</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>583.1682245937193</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>436.2782770958089</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>268.1029554156295</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.134140516355</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4520.375241843983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4231.246603057541</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>3976.562114851654</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3687.144944814693</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>3459.155393916676</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>65.19971827516547</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>228.5889167740529</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43.84158962621764</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>63.49403450404959</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>130.2072968896587</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>151.756925179807</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>36.516157976286</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635156</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.61872201572589</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>130.6844047393597</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>51.71984429840978</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>38.42050855090419</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.5889167740533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25605,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>159.5688032336822</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>26.93116351641916</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>48.75693659211575</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>90.15606851601791</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.418698365</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572135</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
         <v>232464.981357331</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573307</v>
+        <v>232464.981357331</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486867</v>
+        <v>-183484.2046084085</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282098</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356166</v>
+        <v>165252.6126758949</v>
       </c>
       <c r="K6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.831868488</v>
       </c>
       <c r="L6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="M6" t="n">
-        <v>207849.4078943723</v>
+        <v>206874.8166346509</v>
       </c>
       <c r="N6" t="n">
-        <v>342650.4231282093</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="O6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="P6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684879</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>145.0056947925443</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.7336553887081</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.6591484869792</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.2386507606558</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>158.9207969366495</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.1925717977711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>99.10841501723559</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>225.3573807562927</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382551</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063411</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1525989.001574776</v>
+        <v>1530928.264423807</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10932610.52150618</v>
+        <v>10932610.52150617</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40.62363183383273</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>270.6226856612334</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>327.7946815628224</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>18.3768222575565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>307.7676307244759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.728248008472455</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>81.2342443714037</v>
+        <v>86.45928146503108</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6519788371599</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G19" t="n">
-        <v>102.999533959328</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.496242627249363</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.6211591710424</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>115.5269768002176</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>212.3359357460212</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>54.99675100248646</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>225.1809026611657</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>110.1949644673082</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>191.6534898356756</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>118.4898845065121</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4312,37 +4312,37 @@
         <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>898.729014069748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>480.7652059679349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4552,10 +4552,10 @@
         <v>1662.48357412947</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816297</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4898,7 +4898,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>688.885551920185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.6964226305959</v>
+        <v>800.1496160432035</v>
       </c>
       <c r="C13" t="n">
-        <v>437.6964226305959</v>
+        <v>800.1496160432035</v>
       </c>
       <c r="D13" t="n">
-        <v>437.6964226305959</v>
+        <v>650.0329766308678</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y13" t="n">
-        <v>437.6964226305959</v>
+        <v>981.7980808734433</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,10 +5293,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5478,10 +5478,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.1079791745888</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,13 +5536,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>610.099572080556</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>463.2096245826456</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>758.0126656629491</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,10 +6007,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6469,16 +6469,16 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240057</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>468.5954956259884</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>468.5954956259884</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>503.3281774570622</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W37" t="n">
-        <v>731.3177283550796</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X37" t="n">
-        <v>503.3281774570622</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y37" t="n">
-        <v>503.3281774570622</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7377,7 +7377,7 @@
         <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870658</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776757</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776758</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.19971827516547</v>
+        <v>59.97468118153809</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G16" t="n">
-        <v>43.84158962621764</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G19" t="n">
-        <v>63.49403450404959</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>172.3357375546879</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.08849621799476</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>30.90698584635156</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.80170757780678</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>93.61872201572589</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>33.08849621799476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38.42050855090419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>228.5889167740533</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>26.93116351641916</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>48.75693659211575</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.5889167740531</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="14">
@@ -26316,13 +26316,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
@@ -26334,28 +26334,28 @@
         <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="L2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983654</v>
-      </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26484,25 +26484,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572136</v>
+        <v>-357502.8978572137</v>
       </c>
       <c r="C6" t="n">
         <v>232464.981357331</v>
@@ -26530,40 +26530,40 @@
         <v>232464.981357331</v>
       </c>
       <c r="E6" t="n">
-        <v>-183484.2046084085</v>
+        <v>-182607.0724746589</v>
       </c>
       <c r="F6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022375</v>
       </c>
       <c r="H6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="I6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="J6" t="n">
-        <v>165252.6126758949</v>
+        <v>166129.7448096443</v>
       </c>
       <c r="K6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="L6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="M6" t="n">
-        <v>206874.8166346509</v>
+        <v>207751.9487684001</v>
       </c>
       <c r="N6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="O6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="P6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>314.0594097868502</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>53.3000871031237</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>85.98948845797258</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>130.2386507606558</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538052008</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>99.10841501723559</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>194.1370723978101</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.50172456543</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>136.9369439716854</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875337</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337001</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063411</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
